--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il17f-Il17ra.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il17f-Il17ra.xlsx
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.37362766666667</v>
+        <v>1.309671333333333</v>
       </c>
       <c r="N2">
-        <v>52.12088300000001</v>
+        <v>3.929014</v>
       </c>
       <c r="O2">
-        <v>0.4119962501387954</v>
+        <v>0.05806924226264097</v>
       </c>
       <c r="P2">
-        <v>0.4119962501387954</v>
+        <v>0.05806924226264098</v>
       </c>
       <c r="Q2">
-        <v>2.586863665056</v>
+        <v>0.195004822848</v>
       </c>
       <c r="R2">
-        <v>23.28177298550401</v>
+        <v>1.755043405632</v>
       </c>
       <c r="S2">
-        <v>0.4119962501387954</v>
+        <v>0.05806924226264097</v>
       </c>
       <c r="T2">
-        <v>0.4119962501387954</v>
+        <v>0.05806924226264098</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,22 +623,22 @@
         <v>21.956733</v>
       </c>
       <c r="O3">
-        <v>0.1735598313117363</v>
+        <v>0.3245116581089107</v>
       </c>
       <c r="P3">
-        <v>0.1735598313117363</v>
+        <v>0.3245116581089107</v>
       </c>
       <c r="Q3">
         <v>1.089756572256</v>
       </c>
       <c r="R3">
-        <v>9.807809150304001</v>
+        <v>9.807809150303999</v>
       </c>
       <c r="S3">
-        <v>0.1735598313117363</v>
+        <v>0.3245116581089107</v>
       </c>
       <c r="T3">
-        <v>0.1735598313117363</v>
+        <v>0.3245116581089107</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.631828666666667</v>
+        <v>4.657910333333334</v>
       </c>
       <c r="N4">
-        <v>10.895486</v>
+        <v>13.973731</v>
       </c>
       <c r="O4">
-        <v>0.08612477604110703</v>
+        <v>0.2065261082683789</v>
       </c>
       <c r="P4">
-        <v>0.08612477604110705</v>
+        <v>0.2065261082683789</v>
       </c>
       <c r="Q4">
-        <v>0.540764761152</v>
+        <v>0.6935442169920001</v>
       </c>
       <c r="R4">
-        <v>4.866882850368</v>
+        <v>6.241897952928</v>
       </c>
       <c r="S4">
-        <v>0.08612477604110703</v>
+        <v>0.2065261082683789</v>
       </c>
       <c r="T4">
-        <v>0.08612477604110705</v>
+        <v>0.2065261082683789</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.84501566666667</v>
+        <v>9.267122333333333</v>
       </c>
       <c r="N5">
-        <v>41.535047</v>
+        <v>27.801367</v>
       </c>
       <c r="O5">
-        <v>0.3283191425083613</v>
+        <v>0.4108929913600695</v>
       </c>
       <c r="P5">
-        <v>0.3283191425083613</v>
+        <v>0.4108929913600695</v>
       </c>
       <c r="Q5">
-        <v>2.061467452704</v>
+        <v>1.379837446944</v>
       </c>
       <c r="R5">
-        <v>18.553207074336</v>
+        <v>12.418537022496</v>
       </c>
       <c r="S5">
-        <v>0.3283191425083613</v>
+        <v>0.4108929913600695</v>
       </c>
       <c r="T5">
-        <v>0.3283191425083613</v>
+        <v>0.4108929913600695</v>
       </c>
     </row>
   </sheetData>
